--- a/monetization_factors/trinomics.xlsx
+++ b/monetization_factors/trinomics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidba\internalization\monetization_factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{394C4718-8BEC-43FF-83D9-EEEFB0CB1F26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1240411B-E2C0-4E28-B612-0FA9A11908AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{1B53FD6D-9BB7-4D81-B6A0-FADFA06C170E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Midpoint</t>
   </si>
@@ -54,54 +54,6 @@
     <t>Costs approach</t>
   </si>
   <si>
-    <t>Climate change</t>
-  </si>
-  <si>
-    <t>Ozone depletion</t>
-  </si>
-  <si>
-    <t>Ionising radiation, human health</t>
-  </si>
-  <si>
-    <t>Photochemical ozone formation, human health</t>
-  </si>
-  <si>
-    <t>Particulate matter</t>
-  </si>
-  <si>
-    <t>Human toxicity, non-cancer</t>
-  </si>
-  <si>
-    <t>Human toxicity, cancer</t>
-  </si>
-  <si>
-    <t>Acidification</t>
-  </si>
-  <si>
-    <t>Eutrophication, freshwater</t>
-  </si>
-  <si>
-    <t>Eutrophication, marine</t>
-  </si>
-  <si>
-    <t>Eutrophication, terrestrial</t>
-  </si>
-  <si>
-    <t>Ecotoxicity, freshwater</t>
-  </si>
-  <si>
-    <t>Land use (Soil quality index)</t>
-  </si>
-  <si>
-    <t>Water use</t>
-  </si>
-  <si>
-    <t>Resource use, fossils</t>
-  </si>
-  <si>
-    <t>Resource use, minerals and metals</t>
-  </si>
-  <si>
     <t>kg CO2 eq</t>
   </si>
   <si>
@@ -178,6 +130,54 @@
   </si>
   <si>
     <t>Avoidance costs</t>
+  </si>
+  <si>
+    <t>acidification</t>
+  </si>
+  <si>
+    <t>climate change</t>
+  </si>
+  <si>
+    <t>ozone depletion</t>
+  </si>
+  <si>
+    <t>ionising radiation: human health</t>
+  </si>
+  <si>
+    <t>photochemical ozone formation: human health</t>
+  </si>
+  <si>
+    <t>particulate matter formation</t>
+  </si>
+  <si>
+    <t>eutrophication: freshwater</t>
+  </si>
+  <si>
+    <t>eutrophication: marine</t>
+  </si>
+  <si>
+    <t>eutrophication: terrestrial</t>
+  </si>
+  <si>
+    <t>ecotoxicity: freshwater</t>
+  </si>
+  <si>
+    <t>land use</t>
+  </si>
+  <si>
+    <t>water use</t>
+  </si>
+  <si>
+    <t>energy resources: non-renewable</t>
+  </si>
+  <si>
+    <t>material resources: metals/minerals</t>
+  </si>
+  <si>
+    <t>human toxicity: non-carcinogenic</t>
+  </si>
+  <si>
+    <t>human toxicity: carcinogenic</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,16 +586,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>6.1499999999999999E-2</v>
@@ -609,16 +609,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>22.8</v>
@@ -632,16 +632,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>8.0000000000000004E-4</v>
@@ -655,16 +655,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0.87</v>
@@ -678,16 +678,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>661974</v>
@@ -701,16 +701,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>30211</v>
@@ -724,16 +724,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>174324</v>
@@ -747,16 +747,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0.17599999999999999</v>
@@ -770,16 +770,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0.26</v>
@@ -793,16 +793,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>3.21</v>
@@ -816,39 +816,30 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1">
         <v>2.3899999999999998E-24</v>
@@ -862,13 +853,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>8.7000000000000001E-5</v>
@@ -882,16 +873,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>4.1900000000000001E-3</v>
@@ -905,16 +896,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -928,16 +919,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
